--- a/headlines.xlsx
+++ b/headlines.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="281">
   <si>
     <t>title</t>
   </si>
@@ -25,808 +25,838 @@
     <t>summary</t>
   </si>
   <si>
-    <t>On Camera, Man Moves Mic Away, Confronts Himanta Sarma On Hyderabad Stage</t>
-  </si>
-  <si>
-    <t>Equity Mutual Funds Inflows Drop To 10-Month Low Of Rs 6,120 Crore In August</t>
-  </si>
-  <si>
-    <t>JoSAA Counselling 2022: Check Last Year's IIT Cut-Offs For BTech Computer Science And Engineering</t>
-  </si>
-  <si>
-    <t>iPhone 14 Pro Models’ 48-Megapixel ProRAW Images Use Three Times More Storage Than 12-Megapixel Shots: Report</t>
-  </si>
-  <si>
-    <t>Nirmala Sitharaman Outlines Steps To Check Illegal, Fraud Loan Apps' Operations</t>
-  </si>
-  <si>
-    <t>Charles To Be Formally Proclaimed King On Saturday: Buckingham Palace</t>
-  </si>
-  <si>
-    <t>JEE Advanced 2022 Result On September 11; Know Last Five Years' Pass Percentage</t>
-  </si>
-  <si>
-    <t>RBI To Prepare A List Of Approved Digital Lending Apps To Weed Out Unethical Ones</t>
-  </si>
-  <si>
-    <t>The Peripheral Teaser Trailer: Chloë Grace Moretz Bounces Between Alternate Futures in New Prime Video Series</t>
-  </si>
-  <si>
-    <t>Tejashwi Yadav's Supporter Travels On Foot From Nepal To Bihar To Meet Him</t>
-  </si>
-  <si>
-    <t>Had A Binge Eating Session? Detox With Slight Changes In Your Morning Routine</t>
-  </si>
-  <si>
-    <t>Russia's Exclusion Potentially Paves Way For India Into Global Bond Index</t>
-  </si>
-  <si>
-    <t>Marital Rape: Supreme Court To Hear Plea Arising Out Of High Court Verdict</t>
-  </si>
-  <si>
-    <t>Premier League Fixtures Postponed Following Queen Elizabeth's Death</t>
-  </si>
-  <si>
-    <t>American Man Wins $1 Million Lottery After Trying To Claim A $600 Prize</t>
-  </si>
-  <si>
-    <t>"Team Could Have Been In Danger": Pakistan Cricket Board Chief Ramiz Raja on Afghanistan Fan Fury</t>
-  </si>
-  <si>
-    <t>Brahmastra: Mouni Roy's Junoon Is The Villain Twitter Loves</t>
-  </si>
-  <si>
-    <t>Rahul Gandhi, Leading Congress' Mega March, Meets YouTubers Of 'Village Cooking Channel' In Kanyakumari</t>
-  </si>
-  <si>
-    <t>AP ECET Counselling 2022 Registrations End Today; Direct Link Here</t>
-  </si>
-  <si>
-    <t>Charles: The King Who Believes In The Healing Power Of Yoga, Ayurveda</t>
-  </si>
-  <si>
-    <t>Watch: MS Dhoni, Kapil Dev Enjoy US Open Quarterfinals Between Carlos Alcaraz And Jannik Sinner</t>
-  </si>
-  <si>
-    <t>2 Maharashtra Business Groups Raided, Rs 100 Crore "Hidden Income" Found</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro Max May Get Exclusive Features Over Pro Variant: Ming-Chi Kuo</t>
-  </si>
-  <si>
-    <t>Air India Group Starts Vacating Its Offices From Government-Owned Properties</t>
-  </si>
-  <si>
-    <t>Arvind Kejriwal Meets Lt Governor 1st Time Since Manish Sisodia Raid Sparked Scam-vs-Scam</t>
-  </si>
-  <si>
-    <t>Steve Jobs' Daughter Eve Mocks iPhone 14 With Hilarious Meme</t>
-  </si>
-  <si>
-    <t>Roger Federer Hails "Grace" Of Queen Elizabeth II As Pele Salutes "Legacy"</t>
-  </si>
-  <si>
-    <t>Queen Elizabeth And Prince Philip's 7-Decade Love Story In 10 Pictures</t>
-  </si>
-  <si>
-    <t>Vivo V25 5G India Launch Confirmed, Teased to Sport 50-Megapixel Selfie Camera</t>
-  </si>
-  <si>
-    <t>Rupee Gains Sharply As Dollar Pulls Back Broadly From Two-Decade Highs</t>
-  </si>
-  <si>
-    <t>Akshay Kumar's 55th Birthday Was Spent With Board Games And Halwa Cake. Details From Twinkle Khanna</t>
-  </si>
-  <si>
-    <t>Caught On Camera: Bear In US Easily Opens Car Door, Climbs Inside</t>
-  </si>
-  <si>
-    <t>SpiceJet Appoints Ashish Kumar As Chief Financial Officer</t>
-  </si>
-  <si>
-    <t>What Will Happen To The Queen's Beloved Corgis? Plan Not Revealed</t>
-  </si>
-  <si>
-    <t>Toll Plaza Gates Were Widened To Transport Stone For Netaji Bose Statue</t>
-  </si>
-  <si>
-    <t>ICAI Advanced ICITSS Result 2022 Out; Direct Link Here</t>
-  </si>
-  <si>
-    <t>UP Principal Suspended After Students Forced To Clean Toilets</t>
-  </si>
-  <si>
-    <t>"Nazar Lag Gayi": Pakistan Pacer's Hilarous Response To Sanjay Manjrekar's Compliment</t>
-  </si>
-  <si>
-    <t>Elon Musk's Lawyer Claims Twitter Agreed to Pay Whistleblower $7 Million to Stay Silent: Report</t>
-  </si>
-  <si>
-    <t>ICAI CA November Exams 2022: Last Date To Submit Applications With Late Fee Tomorrow</t>
-  </si>
-  <si>
-    <t>Pics: Kareena Kapoor Watched Cousin Ranbir's Brahmastra With Husband Saif Ali Khan And Son Taimur</t>
-  </si>
-  <si>
-    <t>Sensex Ends Higher, But Pares Some Gains To Close Below 60,000 Level</t>
-  </si>
-  <si>
-    <t>"Terrible Sandwich", School Kid Criticising Mom-Made Lunch Makes Internet Laugh</t>
-  </si>
-  <si>
-    <t>Rupee Holding Its Ground Clouds Export Appeal: Report</t>
-  </si>
-  <si>
-    <t>Queen Elizabeth's Iconic Scones Recipe From 1960 Surfaces Online</t>
-  </si>
-  <si>
-    <t>How To Remove Bad Odour From Lunch Boxes - Easy Tips And Tricks</t>
-  </si>
-  <si>
-    <t>Web3 Company Led by Former Meta Execs Raises $300 Million in Series B Funding</t>
-  </si>
-  <si>
-    <t>Anushka Sharma Loves 'Eating Biscuits' - Talks About Her Favourite Ones</t>
-  </si>
-  <si>
-    <t>Viral Video Of Punjab Man In Mercedes Buying Cheap Ration Irks The Internet</t>
-  </si>
-  <si>
-    <t>Oppo F21s Pro Series to Launch in India Soon; Will Feature 64-Megapixel Triple Camera Setup: All Details</t>
-  </si>
-  <si>
-    <t>Friday's Play In England vs South Africa Test Cancelled After Queen's Death</t>
-  </si>
-  <si>
-    <t>Porsche Says Talks With Red Bull To Enter Formula One Fail</t>
-  </si>
-  <si>
-    <t>MH CET Law Result 2022 Tomorrow; Direct Link, Steps To Download Scorecard</t>
-  </si>
-  <si>
-    <t>NMC Denies AMU's Request To Increase MBBS Seats; 'Discrepancies In Data Collected,' Says University</t>
-  </si>
-  <si>
-    <t>How To Make Japanese Chicken Curry In Just 30 Mins</t>
-  </si>
-  <si>
-    <t>Virat Kohli Fires T20 World Cup Warning After Long-Awaited Century</t>
-  </si>
-  <si>
-    <t>After Queen Elizabeth's Death, The Crown To Halt Shooting</t>
-  </si>
-  <si>
-    <t>Degrees Through Distance Learning To Be On Par With Those Obtained By Conventional Mode: UGC</t>
-  </si>
-  <si>
-    <t>ICAR AIEEA UG Admit Card 2022 Soon; Know Where, How To Download</t>
-  </si>
-  <si>
-    <t>Battlefield Campaign in the Works at EA, Headlined by New Studio Ridgeline Games</t>
-  </si>
-  <si>
-    <t>Wait, What? You Can Cook Butter Chicken In Electric Kettle (Recipe Inside)</t>
-  </si>
-  <si>
-    <t>Queen Elizabeth Once Visited Kamal Haasan's Film Shoot - See What He Wrote</t>
-  </si>
-  <si>
-    <t>iPhone Sales in India Likely to Be Over 7 Million in 2022: Techarc Report</t>
-  </si>
-  <si>
-    <t>Weekend Special: Make These Mouth-Watering Cinnamon Rolls For A Sweet Indulgence</t>
-  </si>
-  <si>
-    <t>Chhattisgarh CM Announces Provision For Free Education For Students From Economically Weaker Sections</t>
-  </si>
-  <si>
-    <t>As Virat Kohli Hits 71st Ton, "Biscuit" AB de Villiers Shares Throwback Gold</t>
-  </si>
-  <si>
-    <t>Digestion: Here Are 3 Foods To Add To Your Diet If You Have Digestive Issues According To Nutritionist Nmami Agarwal</t>
-  </si>
-  <si>
-    <t>Bitcoin Leaps Over $20,000 As Dollar Falls Below Two-Decade High</t>
-  </si>
-  <si>
-    <t>Rice Production Likely To Fall By 10-12 Million Tonne In Kharif Season: Government</t>
-  </si>
-  <si>
-    <t>Tata Group in Talks With Wistron to Manufacture iPhones in India: Report</t>
-  </si>
-  <si>
-    <t>Realme C30s Price in India Tipped Ahead of September 14 Launch</t>
-  </si>
-  <si>
-    <t>Twinkle Khanna On Mother-In-Law Aruna Bhatia: "There Was Only One Real Tigress"</t>
-  </si>
-  <si>
-    <t>Watch: Nashik Street Vendor Dips Hand In Hot Oil; Internet Has Mixed Reaction</t>
-  </si>
-  <si>
-    <t>CBSE Announces Class 10 Compartment Result 2022, How To Download Scorecard</t>
-  </si>
-  <si>
-    <t>Matthew Hayden Appointed Pakistan Mentor For 2022 T20 World Cup</t>
-  </si>
-  <si>
-    <t>Thank God Trailer: Ajay Devgn Plays The "Game Of Life" With Sidharth Malhotra</t>
-  </si>
-  <si>
-    <t>Bihar UGEAC Counselling 2022 Registration Ends Today; Check Steps To Apply</t>
-  </si>
-  <si>
-    <t>JEECUP 2022 Counselling Round 1 Application Process To End Today; Details Here</t>
-  </si>
-  <si>
-    <t>Realme Narzo 50i Prime India Launch Date Set for September 13, Key Specifications Teased</t>
-  </si>
-  <si>
-    <t>Paneer Roll, Chaap Roll And More: 5 Veg Roll Recipes You Must Try This Weekend</t>
-  </si>
-  <si>
-    <t>Polygon’s Chief Security Officer Urges Web3 Firms to Invest in Security Experts Amid Hack Spree</t>
-  </si>
-  <si>
-    <t>Karisma Kapoor's Ganesh Chaturthi Puja Ended With A Sweet Indulgence</t>
-  </si>
-  <si>
-    <t>Star Trek: Picard Season 3 Trailer Out, February 2023 Release Date Set on Prime Video</t>
-  </si>
-  <si>
-    <t>PVR Shareholders, Creditors To Meet On Oct 11 To Discuss INOX Merger</t>
-  </si>
-  <si>
-    <t>Motorola Edge 30 Fusion With Snapdragon 888+ SoC Launched, Edge 30 Neo Tags Along: Price, Specifications</t>
-  </si>
-  <si>
-    <t>Sri Lanka vs Pakistan, Live Streaming: When And Where To Watch Live Telecast, Live Score</t>
-  </si>
-  <si>
-    <t>Bitcoin Regains $20,000 While Ether Manages an Uptick for Second Consecutive Day</t>
-  </si>
-  <si>
-    <t>India's Rice Export Curbs To Stoke Food Inflation Worries, Lift Asian Prices</t>
-  </si>
-  <si>
-    <t>Bipasha Basu's Baby Shower Menu Was A Drool-Worthy Bengali Spread (Video Inside)</t>
-  </si>
-  <si>
-    <t>Divyanka Tripathi And Vivek Dahiya's Delhi Trip Was All About This Dessert</t>
-  </si>
-  <si>
-    <t>Retail Inflation Likely Rose Back Up Close To 7% In August: Report</t>
-  </si>
-  <si>
-    <t>MHT CET Result 2022 Likely By September 15; Details Here</t>
-  </si>
-  <si>
-    <t>Elon Musk Says SpaceX Had ‘Promising’ Talks With Apple Over Satellite Service for iPhones</t>
-  </si>
-  <si>
-    <t>India, US To Hold Trade Policy Forum Meet "Very Soon"</t>
-  </si>
-  <si>
-    <t>Watch Neeraj Chopra's Throw That Made Him India's 1st Diamond League Champion</t>
-  </si>
-  <si>
-    <t>On Brahmastra's Big Day, Why Shah Rukh Khan Is The Object Of Internet Obsession</t>
-  </si>
-  <si>
-    <t>Motorola Edge 30 Ultra With 200-Megapixel Main Sensor, 125W Fast Charging Launched: Price, Specifications</t>
-  </si>
-  <si>
-    <t>The Poder Chronicles: Celebrating The Bread Culture, Baker's Community Of Goa</t>
-  </si>
-  <si>
-    <t>Tata Group In Talks To Assemble iPhones In India: Report</t>
-  </si>
-  <si>
-    <t>Bihar Board BSEB 10th, 12th Sent-Up Exams 2022 From October</t>
-  </si>
-  <si>
-    <t>Tamil Nadu Students Score Lowest In Basic Numeracy; Assam, Gujarat Next: NCERT Study</t>
-  </si>
-  <si>
-    <t>Rupee Hits Over A One-Week High On Softening Dollar, Oil Prices Crash</t>
-  </si>
-  <si>
-    <t>Watch: Virat Kohli Interviewed By Rohit Sharma After His 71st International Century</t>
-  </si>
-  <si>
-    <t>Watch: Craving Crispy But Healthy Snacks? Make These No-Fry Carrot Fries</t>
-  </si>
-  <si>
-    <t>Sensex Reclaims 60,000 Level; Listed Firms' Valuation Hits Record High</t>
-  </si>
-  <si>
-    <t>When Shilpa Shetty Met Queen Elizabeth: See Throwback From The Year She Won Celebrity Big Brother</t>
-  </si>
-  <si>
-    <t>Dr. Jaishree Sharad Explains How Low Vitamin D Can Worsen Skin Conditions</t>
-  </si>
-  <si>
-    <t>Brahmastra Review: Ranbir Kapoor Anchors The Action In Ambitious And Entertaining Fantasy</t>
-  </si>
-  <si>
-    <t>Understanding How Big A Deal Is Electric Ethereum's Mega "Merge" Upgrade</t>
-  </si>
-  <si>
-    <t>Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Press Trust of India   | Friday September 09, 2022, New Delhi</t>
-  </si>
-  <si>
-    <t>Written by Adarsh Srivastava  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Written by Dhruv Raghav , Edited by David Delima  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Agence France-Presse   | Friday September 09, 2022, London</t>
-  </si>
-  <si>
-    <t>Edited by Arnab Mitra  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Reuters   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Written by Rahul Chettiyar , Edited by Akhil Arora,David Delima  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Press Trust of India   | Friday September 09, 2022, Patna</t>
-  </si>
-  <si>
-    <t>Edited by NDTV Health Desk  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Subhadip Sircar and Ronojoy Mazumdar, Bloomberg   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Agence France-Presse   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Edited by Nikhil Pandey  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>NDTV Sports Desk   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Written by Pranita Chaubey  | Friday September 09, 2022, New Delhi</t>
-  </si>
-  <si>
-    <t>Written by Arpita Das  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Press Trust of India   | Friday September 09, 2022, London</t>
-  </si>
-  <si>
-    <t>Written by Pranav Hegde , Edited by Siddharth Suvarna  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Press Trust of India   | Friday September 09, 2022, Mumbai</t>
-  </si>
-  <si>
-    <t>Edited by Aarish Chhabra  | Friday September 09, 2022, New Delhi</t>
-  </si>
-  <si>
-    <t>Asian News International   | Friday September 09, 2022, Washington</t>
-  </si>
-  <si>
-    <t>Written by Sourabh Kulesh , Edited by David Delima  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Edited by Rahul Karunakar  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Press Trust of India   | Friday September 09, 2022, Ballia, UP</t>
-  </si>
-  <si>
-    <t>Written by Siddhant Chandra , Edited by David Delima  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Written by Jyothi Jha  | Friday September 09, 2022, New Delhi</t>
-  </si>
-  <si>
-    <t>Somdatta Saha   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Reuters   | Friday September 09, 2022, MUMBAI</t>
-  </si>
-  <si>
-    <t>Aditi Ahuja   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Gauri Rohatgi   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Written by Shomik Sen Bhattacharjee , Edited by Richa Sharma  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Neha Grover   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Press Trust of India   | Friday September 09, 2022, Los Angeles</t>
-  </si>
-  <si>
-    <t>Reported by Press Trust of India | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Written by Rahul Chettiyar , Edited by Akhil Arora,Siddharth Suvarna  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Vrinda Jain   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Written by Richa Sharma  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Vaishali Kapila   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Reported by Asian News International | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Abhimanyu Bose   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Manya Singh   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Written by Siddhant Chandra , Edited by Richa Sharma  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Written by Sourabh Kulesh , Edited by Siddharth Suvarna  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Press Trust of India   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Written by Radhika Parashar , Edited by Richa Sharma  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Written by Siddhant Chandra , Edited by Siddharth Suvarna  | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Reuters   | Friday September 09, 2022, SINGAPORE</t>
-  </si>
-  <si>
-    <t>Priyaja Bakshi   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Friday September 09, 2022, BENGALURU</t>
-  </si>
-  <si>
-    <t>Debby Wu, Bloomberg   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Saibal Chatterjee   | Friday September 09, 2022</t>
-  </si>
-  <si>
-    <t>Inflows in equity mutual funds dropped to a 10-month low level at Rs 6,120 crore in August on account of investors taking cautious approach.</t>
-  </si>
-  <si>
-    <t>The Joint Seat Allocation Authority (JoSAA) will start the registrations for JoSAA counselling 2022 on September 12.</t>
-  </si>
-  <si>
-    <t>On September 7, Apple hosted the ‘Far Out’ launch event. During the event, the Cupertino-based tech giant unveiled the iPhone 14 and iPhone 14 Pro models. The iPhone 14 Pro Max and iPhone 14 Pro have been launched in four storage configurations. The Pro models also feature a 48-megapixel triple rear camera setup, and images captured in ProRAW mode take up to three times more space than a 12-megapixel ProRAW image, according to a report.</t>
-  </si>
-  <si>
-    <t>Finance Minister Nirmala Sitharaman has discussed various issues related to illegal loan apps in a meeting and decided to take a host of measures to check operations of such apps, amid rising instances of digital fraud.</t>
-  </si>
-  <si>
-    <t>Queen Elizabeth's son Charles will be formally proclaimed as King on Saturday, AFP reported quoting Buckingham Palace.</t>
-  </si>
-  <si>
-    <t>JEE Advanced 2022 Result: Last year, the pass percentage witnessed a sharp increase to 30 per cent in comparison with the candidates qualified in the last three years</t>
-  </si>
-  <si>
-    <t>The Indian government is stepping up scrutiny on digital lending apps in an attempt to weed out ones which conduct unethical lending and recovery practices, the government said in a notification on Friday.</t>
-  </si>
-  <si>
-    <t>The Peripheral teaser trailer, starring Chloë Grace Moretz, is out. The sci-fi series is based on the 2014 novel by William Gibson, and deals with multiple instances of a dystopian future. The Peripheral is executive produced by Lisa Joy and Jonathan Nolan — best known for creating Westworld. The Peripheral is out October 21, exclusively on Prime Video, in English, Hindi, Tamil, Telegu, Kannada, and Malayalam.</t>
-  </si>
-  <si>
-    <t>An admirer of Tejashwi Yadav walked all the way from Nepal to meet the young Bihar deputy chief minister in Patna. The information was shared by the 33-year-old leader on his Twitter handle</t>
-  </si>
-  <si>
-    <t>Lovneet Batra shared 3 tips to detox after a binge eating session.</t>
-  </si>
-  <si>
-    <t>India has the biggest bond market among emerging economies that's not covered by global indexes, but bankers say that may change soon, potentially drawing in billions of dollars in inflows. Russia's recent exclusion is one reason why.</t>
-  </si>
-  <si>
-    <t>The Supreme Court today said it would hear on September 16 the pleas arising out of the Delhi High Court's split verdict on the issue of criminalisation of marital rape.</t>
-  </si>
-  <si>
-    <t>All Premier League matches this weekend have been postponed as a mark of respect following the death of Queen Elizabeth II, it was announced on Friday</t>
-  </si>
-  <si>
-    <t>The gamer claimed that when centre staff members examined his ticket and informed him that it was a $1 million winner, he was shocked.</t>
-  </si>
-  <si>
-    <t>Pakistan Cricket Board chief Ramiz Raja has taken strong exception to the unruly behaviour of the Afghanistan fans.</t>
-  </si>
-  <si>
-    <t>Mouni Roy's portrayal of Junoon garnered a lot of love from fans</t>
-  </si>
-  <si>
-    <t>Rahul Gandhi launched the 'Bharat Jodo Yatra' - the Congress party's mega march - from Kanyakumari on Wednesday evening.</t>
-  </si>
-  <si>
-    <t>The candidates can apply online for the AP ECET counselling 2022 process through the official website -- ecet-sche.aptonline.in.</t>
-  </si>
-  <si>
-    <t>King Charles III, Britain's new monarch who ascended to the throne on the death of his mother Queen Elizabeth II, has a strong connection with India and its age-old traditions of Yoga and Ayurveda.</t>
-  </si>
-  <si>
-    <t>Kapil Dev and MS Dhoni were spotted in the stands of the Arthur Ashe Stadium, and witnessed the five-set thriller between third seed Carlos Alcaraz and 11th seed Jannik Sinner</t>
-  </si>
-  <si>
-    <t>The income tax department has detected "unaccounted income" of more than Rs 100 crore after it recently raided two Maharashtra-based business groups, the CBDT said Friday.</t>
-  </si>
-  <si>
-    <t>Apple has tried differentiating the Pro and Pro Max models in the past. The iPhone 12 Pro Max, for example, featured a better main camera compared to the iPhone 12 Pro. This year, the differences between the iPhone 14 and the iPhone 14 Pro series are pretty big.</t>
-  </si>
-  <si>
-    <t>The Air India Group has started vacating its offices, which are currently being operated from government-owned properties, from this month.</t>
-  </si>
-  <si>
-    <t>Last had regular Friday meet on Aug 12; did not on Aug 19 as CBI raided Manish Sisodia liquor policy; then last Friday, Arvind Kejriwal was in Gujarat</t>
-  </si>
-  <si>
-    <t>Apple unveiled the new iPhone 14 series on Wednesday night and as soon as the phone was launched, many on the Internet sparked a meme fest and started comparing it to the iPhone 13.</t>
-  </si>
-  <si>
-    <t>Roger Federer hailed Queen Elizabeth II for her "elegance" and "grace" as the world of sport stopped to pay tribute to the British monarch following her death aged 96</t>
-  </si>
-  <si>
-    <t>Heres a timeline of Prince Philip and Queen Elizabeths seven-decademarriage</t>
-  </si>
-  <si>
-    <t>Vivo V25 5G will be launched in India soon with a 50-megapixel main camera and colour-changing fluorite AG glass design, Vivo has announced. The smartphone will sport a 64-megapixel triple rear camera setup.</t>
-  </si>
-  <si>
-    <t>The rupee gained sharply on Friday and extended its weekly winning streak for the second week in a row as the dollar retreated from two-decade highs as investor sentiment improved even as aggressive rate hike path by major central banks clouded the global rally in risk assets.</t>
-  </si>
-  <si>
-    <t>"Happy Birthday my Scrabble Master," wrote Twinkle Khanna</t>
-  </si>
-  <si>
-    <t>The video shows the animal entering the vehicle, most likely in search of food. It was captured by a CCTV camera installedin the area.</t>
-  </si>
-  <si>
-    <t>Budget carrier SpiceJet on Friday said it has appointed Ashish Kumar as its Chief Financial Officer.</t>
-  </si>
-  <si>
-    <t>Britain's longest-serving monarch Queen Elizabeth's royal canines will be rehomed after their "lord and master's" death, according to media reports on Friday.</t>
-  </si>
-  <si>
-    <t>Some of the toll plaza gates on highways had to be "temporarily dismantled" to allow passage to a 100-ft-long truck carrying the monolithic block of granite for the statue of Netaji Subhas Chandra Bose from Telangana to Delhi.</t>
-  </si>
-  <si>
-    <t>Candidates need to enter their registration number, date of birth, exam date and security code to download the Advanced ICITSS result scorecard.</t>
-  </si>
-  <si>
-    <t>The principal of a government primary school here was suspended after a video clip purportedly showing students being forced to clean toilets in the school surfaced on social media, an official said Friday.</t>
-  </si>
-  <si>
-    <t>Asia Cup: With two successive wins in the Super 4 stage, Pakistan have sealed a berth in the final along with Sri Lanka.</t>
-  </si>
-  <si>
-    <t>Elon Musk’s lawyers have argued that Twitter paid a whistleblower $7 million (roughly Rs. 56 crore) to keep silent about the company’s operational problems. It is believed that this whistleblower is Peiter Zatko.</t>
-  </si>
-  <si>
-    <t>Institute of Chartered Accountants of India (ICAI) will close the CA Intermediate, CA Final November 2022 application process with late fee tomorrow, September 10.</t>
-  </si>
-  <si>
-    <t>Kareena Kapoor, Saif Ali Khan, Taimur, Varun Dhawan and others attended the screening of Brahmastra in Mumbai</t>
-  </si>
-  <si>
-    <t>Stock Market India: Equity benchmarks end higher but pare some gains from earlier in the session, with the Sensex index closing a touch below 60,000 points after hitting that level earlier in the day, driven by a broader rally in risk assets.</t>
-  </si>
-  <si>
-    <t>In no time, the video went viral, garnering 11million views till now. People also reacted to the video with thousands of funny comments.</t>
-  </si>
-  <si>
-    <t>India faces the risk of losing its export advantage as the rupee holds ground amidst a rapid weakening of other trade-dependant Asian currencies, Standard Chartered Bank's head of South Asia economic research said on Friday.</t>
-  </si>
-  <si>
-    <t>Queen Elizabeth II had shared her scones recipe in 1960 with the then US President Dwight D. Eisenhower. Here's all you need to know!</t>
-  </si>
-  <si>
-    <t>We bring you a few tips and tricks that can help you in getting rid of the bad smell. Take a look below.</t>
-  </si>
-  <si>
-    <t>Mysten Labs, the company behind the yet-to-launch layer-1 blockchain Sui has raised $300 million (roughly Rs. 2,400 crore) aimed at building core infrastructure and accelerating the adoption of its Sui blockchain ecosystem.</t>
-  </si>
-  <si>
-    <t>Anushka Sharma is currently in London and she's making the most of her stay by indulging in delicious foods. Read on to know more.</t>
-  </si>
-  <si>
-    <t>The viral video shows a man arriving at a ration depot in Hoshiarpur, Punjab, and picking up sacks of wheat, pulses and rice</t>
-  </si>
-  <si>
-    <t>Oppo F21 Pro series was launched in India in April this year. Now, the company has announced that it will soon unveil the Oppo F21s Pro series in the subcontinent. A landing page for the phone has gone live, revealing some of its specifications. It will be 7.66mm in thickness, and feature a 64-megapixel triple rear camera. It will also an orbit light, which surrounds the secondary rear camera lens.</t>
-  </si>
-  <si>
-    <t>Cricket chiefs announced that Friday's play between England and South Africa in the third Test at the Oval would not take place following the death of Queen Elizabeth II.</t>
-  </si>
-  <si>
-    <t>Porsche had a team from 1957-62, although they only raced in two complete seasons 1961/62, with their only victory Dan Gurney's in the 1962 French Grand Prix</t>
-  </si>
-  <si>
-    <t>Candidates can check and download the MH CET 2022 law result through the official website – cetcell.mahacet.org.</t>
-  </si>
-  <si>
-    <t>According to AMU, a team from Jawaharlal Nehru Medical College (JNMC) will visit the National Medical Commission soon and provide the complete data to rectify the discrepancies in the data collected by the NMC</t>
-  </si>
-  <si>
-    <t>You must have tried a wide range of different chicken curries, unique to every region. This one right here, is a game changer.</t>
-  </si>
-  <si>
-    <t>India's Virat Kohli says he was "pleasantly surprised" to get his long-awaited century in the short format as he targets more runs in the upcoming T20 World Cup.</t>
-  </si>
-  <si>
-    <t>The show's fifth season will feature Imelda Staunton as Queen Elizabeth</t>
-  </si>
-  <si>
-    <t>Degrees obtained through distance and online learning from recognised institutions will be treated on a par with those offered through conventional mode.</t>
-  </si>
-  <si>
-    <t>The National Testing Agency (NTA) will issue the Indian Council of Agricultural Research (ICAR) All India Entrance Examination for Admission Undergraduate (AIEEA UG) admit card 2022 soon.</t>
-  </si>
-  <si>
-    <t>Battlefield will soon get a narrative campaign. EA has established Ridgeline Games, a new studio dedicated to the Battlefield franchise, that will focus on creating a proper campaign mode. The studio is headlined by Halo co-creator Marcus Lehto, and will try correcting the course for future Battlefield entries.</t>
-  </si>
-  <si>
-    <t>In a video uploaded by Chef Pankaj Bhadouria, we see her cooking butter chicken in an electric kettle.</t>
-  </si>
-  <si>
-    <t>Kamal Haasan shared a picture from his second meeting with Queen Elizabeth in 2017</t>
-  </si>
-  <si>
-    <t>India will witness a huge surge in the sale of premium smartphones this year, with iPhones likely to cross over 7 million (70 lakh) mark, according to market research and analyst firm Techarc. The country is reportedly expected to mark the sale of around 162 million (16.2 crore) phones in 2022.</t>
-  </si>
-  <si>
-    <t>If you're craving something sweet this weekend, then these delicious cinnamon rolls are a must-try!</t>
-  </si>
-  <si>
-    <t>The EWS students of Chhattisgarh will soon avail the facility of free coaching for All India Engineering and Medical entrance examinations, as well as other competitive examinations like CA, CS, CLAT, and NDA.</t>
-  </si>
-  <si>
-    <t>AB de Villiers shared a gem of a throwback picture to celebrate Virat Kohli's 71st international century.</t>
-  </si>
-  <si>
-    <t>Digestion: These foods contribute to healthy digestion &amp; also relieve IBS symptoms like gas, acidity &amp; bloating.</t>
-  </si>
-  <si>
-    <t>Bitcoin surged past the $20,000 barrier and was eyeing its best day in six weeks on Friday as the US dollar fell broadly and markets found reasons to be cheerful at the end of a dour week.</t>
-  </si>
-  <si>
-    <t>India's rice production could fall by 10-12 million tonnes during the Kharif season of this year, due to a fall in paddy sowing area, the government said on Friday.</t>
-  </si>
-  <si>
-    <t>Tata is reportedly in talks with Taiwanese supplier Wistron to set up a joint electronics manufacturing venture in India. Tata is reportedly seeking to manufacture iPhones in India.</t>
-  </si>
-  <si>
-    <t>Realme C30s price in India has been tipped ahead of the phone’s launch in the country. It is tipped to start at Rs. 7,999 for the base 2GB RAM + 32GB storage option. The 3GB RAM + 32GB storage option is claimed to come with a price tag of Rs. 8,799.</t>
-  </si>
-  <si>
-    <t>Akshay Kumar's mother Aruna Bhatia died on 8 September 2021, just a day before Akshay Kumar's birthday</t>
-  </si>
-  <si>
-    <t>When a woman was seen making vada pavs in boiling oil with her hand, the internet was left with different opinions.</t>
-  </si>
-  <si>
-    <t>CBSE 10th Compartment Result 2022: CBSE Class 10 compartment exam scorecard is available to download on the official websites- cbse.gov.in, cbseresults.nic.in</t>
-  </si>
-  <si>
-    <t>Matthew Hayden will return as Pakistan's mentor for the 2022 T20 World Cup in Australia. He had performed the same role for them in last year's edition.</t>
-  </si>
-  <si>
-    <t>Thank God marks Ajay Devgn and Sidharth Malhotra's first collaboration</t>
-  </si>
-  <si>
-    <t>UGEAC Counselling 2022: Candidates can apply online for Bihar UGEAC 2022 for BE and BTech admission through the official website – bceceboard.bihar.gov.in.</t>
-  </si>
-  <si>
-    <t>JEECUP 2022 Counselling: According to UPJEE, the round 1 seat allotment result will be out on  September 10, the candidates can select the freeze/float option and appear for document verification from September 11 to 13</t>
-  </si>
-  <si>
-    <t>Realme Narzo 50i Prime will launch India on September 13. It will come with a 6.5-inch display, 5,000mAh battery, and two colour options. The smartphone was earlier launched on AliExpress in the month of June this year.</t>
-  </si>
-  <si>
-    <t>Here we bring you 5 quick and easy veg roll recipes that are just perfect to enjoy the weekend. The best part is these rolls do not need back-breaking efforts or time investment in the preparation. Take a look.</t>
-  </si>
-  <si>
-    <t>Mudit Gupta, the Chief Security Officer (CSO) of Polygon blockchain, has highlighted that all the recent hacks in the crypto sector can be linked to vulnerabilities existing in the Web2 security. In a bid to safeguard Web3 firms from similar breaches, Gupta has suggested all such firms to appoint dedicated security teams.</t>
-  </si>
-  <si>
-    <t>Karisma Kapoor enjoyed a bowlful of sweet delight at the Ganesh puja celebrations. Can you guess what it was?</t>
-  </si>
-  <si>
-    <t>Star Trek: Picard season 3 trailer is finally here. Paramount+ unveiled a sneak peek of the Patrick Stewart-led space odyssey, as he guides The Next Generation crew on one last mission. Season three of the revival series serves as the final chapter, and consists of 10 episodes. Star Trek Picard season 3 premieres on February 16, 2023, exclusively on Paramount+. In India, the show airs on Amazon Prime Video.</t>
-  </si>
-  <si>
-    <t>Multiplex operator PVR has called a meeting of its shareholders and creditors on October 11 to seek their approval for the scheme of merger with rival Inox Leisure.</t>
-  </si>
-  <si>
-    <t>Motorola launched the Motorola Edge 30 Fusion with the Snapdragon 888+ SoC on Thursday. This handset sports a 6.55-inch curved Endless Edge pOLED display. The company also unveiled the mid-ranger Motorola Edge 30 Neo which comes equipped with a Snapdragon 695 SoC and a dual rear camera setup.</t>
-  </si>
-  <si>
-    <t>SL vs PAK: Sri Lanka and Pakistan will face off in the Super 4 stage of the Asia Cup two days before they meet again in the final.</t>
-  </si>
-  <si>
-    <t>The wider cryptocurrency market got a reprieve from the recent bout of selling on Thursday as prices were up across the board with Bitcoin back above the $20,000 (roughly Rs. 15.97 lakh) mark.</t>
-  </si>
-  <si>
-    <t>India's decision to curb rice exports is expected to lift world prices of the staple and trigger a rally rival in wheat and corn markets, deepening concerns over food inflation.</t>
-  </si>
-  <si>
-    <t>Bipasha Basu's baby shower was all about indulging in her favourite dishes.</t>
-  </si>
-  <si>
-    <t>As the actress was in Delhi, she and her husband were seen enjoying desserts from a popular bakery.</t>
-  </si>
-  <si>
-    <t>India's retail inflation likely snapped a three-month downward trend in August as food prices surged, a Reuters poll of economists found, which may add pressure on the Reserve Bank of India to hike interest rates more aggressively in coming months.</t>
-  </si>
-  <si>
-    <t>Once the result is declared, candidates can check and download the MHT CET 2022 result through the official website – mahacet.org.</t>
-  </si>
-  <si>
-    <t>Elon Musk has recently tweeted that his company SpaceX had “promising talks” with Apple for using Starlink connectivity for the new satellite feature introduced in the recent iPhone lineup. The billionaire also called Apple’s iPhone team “super smart.” Apple announced the new satellite connectivity feature on Wednesday.</t>
-  </si>
-  <si>
-    <t>India and the US will "very soon" hold the next ministerial-level meeting of the Trade Policy Forum (TPF) in America to discuss ways for promoting trade and investment between the countries.</t>
-  </si>
-  <si>
-    <t>Neeraj Chopra became the first Indian to become a Diamond League champion with a monster 88.44m.</t>
-  </si>
-  <si>
-    <t>Turns out, the fan theories were right after all</t>
-  </si>
-  <si>
-    <t>Motorola Edge 30 Ultra has been launched in multiple markets at a price of Rs. EUR 899 (roughly Rs. 72,150). It sports a 200-megapixel main sensor, Qualcomm Snapdragon 8+ Gen 1 SoC, 125W TurboPower charging, and a 6.67-inch full-HD+ pOLED display with 144Hz refresh rate.</t>
-  </si>
-  <si>
-    <t>The Poder Chronicles aims to support and revive the Poder community and the Poder culture, which is at the heart of the Goan culinary tapestry.</t>
-  </si>
-  <si>
-    <t>Tata Group is in talks with a Taiwanese supplier to Apple Inc. to establish an electronics manufacturing joint venture in India, seeking to assemble iPhones in the South Asian country.</t>
-  </si>
-  <si>
-    <t>BSEB 10th, 12th Sent-Up Exams 2022: The BSEB matric sent-up exam will commence on November 15 and inter exam on October 11. Check schedule</t>
-  </si>
-  <si>
-    <t>This was revealed in the national report on benchmarking for "oral reading fluency with reading comprehension and numeracy 2022" conducted by the NCERT.</t>
-  </si>
-  <si>
-    <t>The rupee hit a more than one-week high against the US currency on Friday, as the dollar index fell further from a two-decade high scaled earlier this week.</t>
-  </si>
-  <si>
-    <t>Rohit Sharma quizzed Virat Kohli about his stunning century against Afghanistan in the Asia Cup.</t>
-  </si>
-  <si>
-    <t>Healthy Snack: Here's a recipe of fries that is not actually fried, and is made of healthier carrots instead of starchy potatoes.</t>
-  </si>
-  <si>
-    <t>Stock Market India: equity benchmarks rose early on Friday, extending gains from the previous session, tracking a rally in Asian bourses.</t>
-  </si>
-  <si>
-    <t>"What an incredibly inspiring journey your life has been," wrote Shilpa Shetty</t>
-  </si>
-  <si>
-    <t>Vitamin D: Low levels of vitamin D are linked to impaired immunity, increased inflammation, etc. Deficiency may have a harmful effect on the skin.</t>
-  </si>
-  <si>
-    <t>Brahmastra Review: On the acting front, Ranbir and Alia achieve the impossible - they ensure that Shiva and Isha are always believable even as the goings-on around them are beyond fantastic.</t>
-  </si>
-  <si>
-    <t>Here's what you need to know about the "Merge," as the shift is known.</t>
+    <t>India Squad For T20 World Cup: Jasprit Bumrah And Harshal Patel Return, Ashwin Named</t>
+  </si>
+  <si>
+    <t>United Nations Slams Russia's 'Intimidation' Of Ukraine War Opponents</t>
+  </si>
+  <si>
+    <t>Nitin Gadkari Seeks US Investments In Roads And Highways Projects In India</t>
+  </si>
+  <si>
+    <t>Malaika Arora Shares What Her "Kinda Comfort Food" Looks Like (Pic Inside)</t>
+  </si>
+  <si>
+    <t>UK To Observe Minute's Silence For Queen Elizabeth On September 18</t>
+  </si>
+  <si>
+    <t>Akshay Kumar Ad Tweeted By Nitin Gadkari Slammed For "Promoting Dowry"</t>
+  </si>
+  <si>
+    <t>Sonali Phogat death: Home Ministry recommends CBI probe, reports news agency PTI quoting officials</t>
+  </si>
+  <si>
+    <t>How To Make Masala Chicken Frankie - Recipe By Chef Sanjeev Kapoor</t>
+  </si>
+  <si>
+    <t>Shahid Afridi Says His Daughter Was Waving Indian Flag During India-Pak Match</t>
+  </si>
+  <si>
+    <t>Film Producer Mushtaq Nadiadwala Says His Children Being Kept Illegally By Wife In Pakistan</t>
+  </si>
+  <si>
+    <t>5 Desi Drinks That May Help You Detox After Festivals</t>
+  </si>
+  <si>
+    <t>What Happened When Ranveer Singh Met Kamal Haasan, Yash, Allu Arjun, Vijay Deverakonda And Other Stars</t>
+  </si>
+  <si>
+    <t>Haryana Board Class 10, 12 Re-Appear Exam 2022 Date Sheet Out; Complete Schedule Here</t>
+  </si>
+  <si>
+    <t>Anushka Sharma Posts Photos With Virat Kohli At Road-side Cafe. See Pics</t>
+  </si>
+  <si>
+    <t>Nitin Gadkari On What Centre Is Doing To Reduce Congestion At Toll Plazas</t>
+  </si>
+  <si>
+    <t>4 Coaches Of Train Heading To Chhattisgarh Derail In Odisha, None Injured</t>
+  </si>
+  <si>
+    <t>Watch: Drone Flying Over Volcano Gets Hit By Lava, Yet Takes Breathtaking Shots</t>
+  </si>
+  <si>
+    <t>World Leaders To Travel To Queen Elizabeth II's Funeral By Bus: Report</t>
+  </si>
+  <si>
+    <t>Minister In Nitish Kumar's Cabinet Slaps Defamation Notice On Party MLA</t>
+  </si>
+  <si>
+    <t>Twitter Refutes Elon Musk's Claims of Breach of Agreement Over Whistleblower Payment: Report</t>
+  </si>
+  <si>
+    <t>Top Mortgage Lender, HDFC, Sees Home Loan Demand Despite Rate Hikes</t>
+  </si>
+  <si>
+    <t>Viral Video: Heavy Dosa With Lots Of Butter And Cheese Has Divided The Internet</t>
+  </si>
+  <si>
+    <t>Invite For 'Divorce Celebration' In Bhopal Goes Viral, Event Cancelled After Protests</t>
+  </si>
+  <si>
+    <t>No Stay Of Investigation In Alleged Cheating Case Against SpiceJet Promoter: Delhi High Court</t>
+  </si>
+  <si>
+    <t>Elderly Couple Receive One Of The Last Cards Sent By Queen Elizabeth On Their Wedding Anniversary: Report</t>
+  </si>
+  <si>
+    <t>Government Committed To Create A Self-Reliant Logistics System For The Army: Rajnath Singh</t>
+  </si>
+  <si>
+    <t>Ethereum Blockchain To Undergo Major Upgrade To Cut Energy Use</t>
+  </si>
+  <si>
+    <t>More Pics From Ananya Panday's Rome Diaries</t>
+  </si>
+  <si>
+    <t>This Singapore Group Will Invest $100 Million Via Fund For Digital Assets</t>
+  </si>
+  <si>
+    <t>Man Stabs Neighbour For Abusing His Mother, Arrested: Delhi Police</t>
+  </si>
+  <si>
+    <t>DU UG Admission 2022: Key Points On Supernumerary Seats Under Sports, ECA Quota</t>
+  </si>
+  <si>
+    <t>Apple Working on iPhone Subscription Service, Could Launch by Year End: Mark Gurman</t>
+  </si>
+  <si>
+    <t>"Can Be Our Trump Card": Harbhajan Singh Backs Young Pacer For T20 World Cup Berth</t>
+  </si>
+  <si>
+    <t>England vs South Africa: England Hammer South Africa In 3rd Test To Win Series 2-1</t>
+  </si>
+  <si>
+    <t>"Captain Cool": Anand Mahindra Shares Video Of "World's Best Bolero Driver"</t>
+  </si>
+  <si>
+    <t>Anushka Sharma And Virat Kohli's Pics Are Love, Actually</t>
+  </si>
+  <si>
+    <t>Koffee With Karan 7: Asked To Pick Between Katrina Kaif And Deepika Padukone, Varun Dhawan Said This</t>
+  </si>
+  <si>
+    <t>Twitter Replies To Elon Musk's Letter, Says Didn't Breach Deal Conditions</t>
+  </si>
+  <si>
+    <t>Rice Export Curbs Paralyse Trade In Asia As Prices Rise</t>
+  </si>
+  <si>
+    <t>Vedanta To Open Its $20 Billion Semiconductor Factory In Gujarat: Report</t>
+  </si>
+  <si>
+    <t>Future Assassin’s Creed Games Might Not Be 150-Hour RPGs, Prices Reflect the Scale of the Project: Report</t>
+  </si>
+  <si>
+    <t>Latest Android Beta Teases Clear Calling, Spatial Audio; Pixel Tablet Also Tipped</t>
+  </si>
+  <si>
+    <t>Rupee Recovers Early Losses To End With Gains Against A Subdued Dollar</t>
+  </si>
+  <si>
+    <t>Sensex, Nifty Jump To Extend Gains For Third Straight Session</t>
+  </si>
+  <si>
+    <t>CAT 2022 Registration Ends On September 14; Important Points Here</t>
+  </si>
+  <si>
+    <t>Singapore's New Work Visa For Skilled Workers Will Be Monitored: Minister</t>
+  </si>
+  <si>
+    <t>Bitcoin Briefly Hits $22,000 Before Dropping Off While Ether Begins 'Merge' Week on a Slump</t>
+  </si>
+  <si>
+    <t>ICC Player of Month: Sikandar Raza, Tahila Mcgrath win for August</t>
+  </si>
+  <si>
+    <t>Moto E22 Alleged Renders Surface Online, Hint at Dual Rear Camera Setup: Report</t>
+  </si>
+  <si>
+    <t>PCB Chief Ramiz Raja Snaps At Indian Journalist After Asia Cup Final Loss. Watch</t>
+  </si>
+  <si>
+    <t>Janhvi Kapoor Partied With Sister Khushi, Ibrahim Ali Khan And Other Friends. See Pics</t>
+  </si>
+  <si>
+    <t>Shikhar Dhawan To Lead India In ODIs Against South Africa: Report</t>
+  </si>
+  <si>
+    <t>IIM Bangalore Recognised As India's Best B School In Masters Programme</t>
+  </si>
+  <si>
+    <t>England vs South Africa, 3rd Test, Day 5 Highlights: England Win By 9 Wickets, Win Series 2-1</t>
+  </si>
+  <si>
+    <t>T20 World Cup, India Squad: What Could Be The Ideal Combination?</t>
+  </si>
+  <si>
+    <t>Bigg Boss 16 Promo: Salman Khan Is Back And This Time, With A Twist</t>
+  </si>
+  <si>
+    <t>Love Spicy Food? Try This South Indian Chilli Lamb For A Mid-Week Indulgence</t>
+  </si>
+  <si>
+    <t>OJEE Counselling 2022: Schedule Out For Admission To UG, PG Programmes; Details Here</t>
+  </si>
+  <si>
+    <t>Realme GT Neo 3T Unboxing Images Shared Ahead of Launch, to Feature 120Hz AMOLED Display: Details</t>
+  </si>
+  <si>
+    <t>JEE Advanced Result: "Offline Classes Challenging But Better Than Online," Says PwD Topper Ojas Maheshwari</t>
+  </si>
+  <si>
+    <t>TNEA Counselling 2022: Round 1 Choice Filling Ends Today, Check Steps To Apply</t>
+  </si>
+  <si>
+    <t>Hindustan Aeronautics Accumulated 105% Returns For Investors In 2022</t>
+  </si>
+  <si>
+    <t>Traditional Method Of Making Lehsun Ka Achar - Step-By-Step Recipe Video</t>
+  </si>
+  <si>
+    <t>Amazon India Announces 50 Percent Fee Cut for New Sellers Ahead of Upcoming Festive Season Sales</t>
+  </si>
+  <si>
+    <t>Queen's Funeral Set To Knock UK Economy After Rebound</t>
+  </si>
+  <si>
+    <t>Akshay Kumar's Tribute To His Hairstylist Milan Jadhav: "Still Can't Believe You've Left Us"</t>
+  </si>
+  <si>
+    <t>Men Should Also Follow A Skincare Routine, Dr. Geetika Mittal Gupta Shares Five Tips</t>
+  </si>
+  <si>
+    <t>Maggi Made With Raspberry Ice Cream Is The Latest Bizarre Recipe On The Internet</t>
+  </si>
+  <si>
+    <t>Specially-Abled Swiggy Delivery Person Rides Motorised Wheelchair; Internet Reacts</t>
+  </si>
+  <si>
+    <t>Catch Up Vaccination For Children; It Is Never Too Late</t>
+  </si>
+  <si>
+    <t>Healthy Dinner Recipes: 5 Dinner Recipes That Can Be Made In Just 15 Mins</t>
+  </si>
+  <si>
+    <t>National Treasure: Edge of History: Harvey Keitel Leads a New Generation of Treasure Hunters</t>
+  </si>
+  <si>
+    <t>Rajinikanth's Daughter Soundarya And Her Husband Vishagan Welcome Son Veer</t>
+  </si>
+  <si>
+    <t>Financial Times MiM Ranking 2022: IIM Bangalore Secures Rank 1 In India, 31 Globally</t>
+  </si>
+  <si>
+    <t>NASA Replaces Leaking Fuel Seals on Artemis I SLS Rocket Ahead of Planned September 23 Launch</t>
+  </si>
+  <si>
+    <t>Gobhi Pepper Fry, Gobhi Dal Vada And More: 5 Quick And Easy Gobhi Snacks You Must Try</t>
+  </si>
+  <si>
+    <t>iPhone 14, iPhone 14 Plus, iPhone 14 Pro, iPhone 14 Pro Max Battery Capacities Allegedly Revealed</t>
+  </si>
+  <si>
+    <t>Follow DU Policy For Admission To Non-Minority Seats, No Interview: High Court Directs St Stephen's College</t>
+  </si>
+  <si>
+    <t>Pakistan Coach Saqlain Mushtaq Defends Team's T20 Style After Asia Cup Final Defeat</t>
+  </si>
+  <si>
+    <t>Tora's Husband Review: Sharp-Eyed Look At Devastating Effects Of Pandemic</t>
+  </si>
+  <si>
+    <t>Binance-Backed WazirX Says India Unfreezes Bank Accounts</t>
+  </si>
+  <si>
+    <t>Air India To Induct 30 Planes Over Next 15 Months</t>
+  </si>
+  <si>
+    <t>"From Outside, Anyone Can Give Comments": Pakistan Coach Defends Mohammad Rizwan's Approach</t>
+  </si>
+  <si>
+    <t>Brahmastra Box Office Collection Day 3: Ranbir Kapoor's Film Has "Fabulous Weekend" With Rs 39.5 Crore On Sunday</t>
+  </si>
+  <si>
+    <t>How To Make Sindhi Biryani - A Flavourful Biryani Recipe You Must Try</t>
+  </si>
+  <si>
+    <t>MHT CET 2022 Result: BPEd, LLB, BEd Scorecards Today; Details Here</t>
+  </si>
+  <si>
+    <t>Amazon To Waive 50% Fee For New Sellers In Festival Season</t>
+  </si>
+  <si>
+    <t>Onion May Help Lower Blood Sugar Levels In Diabetics - Experts Suggest</t>
+  </si>
+  <si>
+    <t>US Bank Regulator Warns Of Crisis Risk From Fintech Proliferation</t>
+  </si>
+  <si>
+    <t>5 Ways To Make Roti Even More Nutritious</t>
+  </si>
+  <si>
+    <t>DU UG Admissions 2022: Delhi University Launches CSAS 2022 Application Portal; Details Here</t>
+  </si>
+  <si>
+    <t>"I Take Full Responsibility": Pakistan Spinner After Side Loses Asia Cup Final vs Sri Lanka</t>
+  </si>
+  <si>
+    <t>Oppo F21s Pro Series India Launch Set for September 15; Live Image Leaked Ahead of Debut: All Details</t>
+  </si>
+  <si>
+    <t>Koffee With Karan 7: 3 Things That Make Anil Kapoor Feel Young - Actually Just 1 Thing</t>
+  </si>
+  <si>
+    <t>Shilpa Shetty's Sunday Food Binge Had A Cute, Paw-Dorable Twist</t>
+  </si>
+  <si>
+    <t>Truly Autonomous Cars May Be Impossible Without Human Touch: Report</t>
+  </si>
+  <si>
+    <t>Bhanuka Rajapaksa Dedicates Asia Cup Title To 'Crisis-Hit' Countrymen</t>
+  </si>
+  <si>
+    <t>Carlos Alcaraz: 5 Facts About US Open Champion Now Ranked Number 1</t>
+  </si>
+  <si>
+    <t>Rakul Preet Can "Truly Eat" All Of This Dessert - Here's Proof</t>
+  </si>
+  <si>
+    <t>In Reliance Firm's Deal With Gautam Adani, A Big Dispute: Report</t>
+  </si>
+  <si>
+    <t>AIMA MAT 2022 CBT Registration Ends Today; Exam Dates, Paper Pattern Details</t>
+  </si>
+  <si>
+    <t>US Set to Widen Curbs on Semiconductors for AI, Chipmaking Tools Shipments to China: Report</t>
+  </si>
+  <si>
+    <t>Vicky Kaushal's 'Sweet' Sunday Binge Has Left Us Drooling; Guess What</t>
+  </si>
+  <si>
+    <t>Percy Jackson and the Olympians Teaser Offers First Look at Camp Half-Blood</t>
+  </si>
+  <si>
+    <t>US Securities Watchdog Plans A New Office For Crypto Filings</t>
+  </si>
+  <si>
+    <t>Discussion Underway To Extend PLI Scheme To More Sectors</t>
+  </si>
+  <si>
+    <t>Gold Prices Remain Flat, All Eyes On US Inflation Data</t>
+  </si>
+  <si>
+    <t>Delhi University To Launch UG Admission Portal Today</t>
+  </si>
+  <si>
+    <t>Apple to Release iOS 16, watchOS 9 Today: How to Install, Compatible iPhones, and More</t>
+  </si>
+  <si>
+    <t>NDTV Sports Desk   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Agence France-Presse   | Monday September 12, 2022, Geneva, Switzerland</t>
+  </si>
+  <si>
+    <t>Asian News International   | Monday September 12, 2022, New Delhi</t>
+  </si>
+  <si>
+    <t>Priyaja Bakshi   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Reuters   | Monday September 12, 2022, London</t>
+  </si>
+  <si>
+    <t>NDTV News Desk   | Monday September 12, 2022, New Delhi</t>
+  </si>
+  <si>
+    <t>NDTV News Desk   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Vaishali Kapila   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Nikhil Pandey   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Press Trust of India   | Monday September 12, 2022, Mumbai</t>
+  </si>
+  <si>
+    <t>Gauri Rohatgi   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Written by Pranita Chaubey  | Monday September 12, 2022, New Delhi</t>
+  </si>
+  <si>
+    <t>Written by Arpita Das  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Press Trust of India   | Monday September 12, 2022, New Delhi</t>
+  </si>
+  <si>
+    <t>Press Trust of India   | Monday September 12, 2022, Bhubaneswar</t>
+  </si>
+  <si>
+    <t>Edited by Bhavya Sukheja  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Agence France-Presse   | Monday September 12, 2022, London</t>
+  </si>
+  <si>
+    <t>Press Trust of India   | Monday September 12, 2022, Patna</t>
+  </si>
+  <si>
+    <t>Written by David Delima  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Reuters   | Monday September 12, 2022, MUMBAI</t>
+  </si>
+  <si>
+    <t>Aditi Ahuja   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Reported by Anurag Dwary, Edited by Amit Chaturvedi  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Edited by Diksha Rani  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Written by Niharika Sanjeeiv  | Monday September 12, 2022, New Delhi</t>
+  </si>
+  <si>
+    <t>Reuters   | Monday September 12, 2022, Singapore</t>
+  </si>
+  <si>
+    <t>Edited by Mridusmita Deka  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Written by Sheldon Pinto , Edited by Siddharth Suvarna  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Tushar Mamgaain   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Agence France-Presse   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Abhimanyu Kulkarni   | Monday September 12, 2022, New Delhi</t>
+  </si>
+  <si>
+    <t>Reuters   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Reuters   | Monday September 12, 2022, NEW DELHI</t>
+  </si>
+  <si>
+    <t>Written by Rahul Chettiyar , Edited by Siddharth Suvarna  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Written by Sourabh Kulesh , Edited by David Delima  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Edited by Rahul Karunakar  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Press Trust of India   | Monday September 12, 2022, Singapore</t>
+  </si>
+  <si>
+    <t>Written by Shomik Sen Bhattacharjee , Edited by Siddharth Suvarna  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Press Trust of India   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Written by Dhruv Raghav , Edited by David Delima  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Written by Niharika Sanjeeiv  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Asian News International   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Reported by Press Trust of India | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Vishesh Roy   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Written by Dhruv Raghav , Edited by Siddharth Suvarna  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Written by Arnab Mitra  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Written by Adarsh Srivastava  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Somdatta Saha   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Agence France-Presse   | Monday September 12, 2022, London, United Kingdom</t>
+  </si>
+  <si>
+    <t>Edited by NDTV Health Desk  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Vrinda Jain   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Dr. Vaidehi Dande   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Written by Rahul Chettiyar , Edited by David Delima  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Edited by Arpita Das  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Jasmin Jose   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Written by Sourabh Kulesh , Edited by Siddharth Suvarna  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Saibal Chatterjee   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Reuters   | Monday September 12, 2022, BENGALURU</t>
+  </si>
+  <si>
+    <t>Reuters   | Monday September 12, 2022, New York</t>
+  </si>
+  <si>
+    <t>Reuters   | Monday September 12, 2022, Milton Keynes, England</t>
+  </si>
+  <si>
+    <t>Malavika Kaur Makol, Bloomberg   | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>Edited by Arnab Mitra  | Monday September 12, 2022</t>
+  </si>
+  <si>
+    <t>India squad for T20 World Cup: Rohit Sharma to lead</t>
+  </si>
+  <si>
+    <t>The United Nations on Monday condemned Moscow's "intimidation" of people in Russia opposed to its war in Ukraine, warning it was undermining fundamental freedoms.</t>
+  </si>
+  <si>
+    <t>Union Minister for Road Transport and Highways Nitin Gadkari has called for investors from the US to come forward and invest in roads and highway projects in India, according to an official statement released on Monday.</t>
+  </si>
+  <si>
+    <t>With over 16.2 million followers on Instagram, Malaika Arora loves to show her follower what she eats in a day.</t>
+  </si>
+  <si>
+    <t>Britain will on September 18 hold a national moment of reflection - a one minute silence following the death of the Queen Elizabeth.</t>
+  </si>
+  <si>
+    <t>The ad shows Akshay Kumar, dressed as a police officer, chiding the father of the bride for sending off his daughter with the groom in a car with only two airbags after the wedding.</t>
+  </si>
+  <si>
+    <t>Chef Sanjeev Kapoor has shared an easy and delicious masala chicken frankie recipe that will tantalise your taste buds in no time.</t>
+  </si>
+  <si>
+    <t>After Pakistan's win, Afridi had congratulated Babar Azam and also termed the matches between the two countries as "greatest sporting event".</t>
+  </si>
+  <si>
+    <t>The Bombay High Court on Monday asked the Centre to take steps to find out where were the children of film producer Mushtaq Nadiadwala and not to make him run from pillar to post in the matter.</t>
+  </si>
+  <si>
+    <t>Here we bring you a list of 5 desi detox drinks that are just perfect to prepare your body for all the festivals that are just round the corner and also to flush out toxins of the past few festivals. Take a look.</t>
+  </si>
+  <si>
+    <t>Ranveer Singh shared pictures and video from the SIIMA Awards album</t>
+  </si>
+  <si>
+    <t>As per the official statement, the Secondary and Senior Secondary reappear examinations will be conducted from September 29.</t>
+  </si>
+  <si>
+    <t>Virat Kohli had a great Asia Cup where he scored two half-centuries and a century</t>
+  </si>
+  <si>
+    <t>The government is conducting a pilot project for an automatic number plate recognition system with a view to reducing traffic congestion at toll plazas, Union minister Nitin Gadkari said on Monday.</t>
+  </si>
+  <si>
+    <t>At least four coaches of Visakhapatnam-Kirandul passenger special train derailed in Odisha's Koraput district on Monday, the East Coast Railway (ECoR) said in a statement.</t>
+  </si>
+  <si>
+    <t>A dramatic video showing a drone getting hit by bursting volcanic lava has gone viral on the internet. The clip was shared on Instagram by user Louis Houiller on August 29, and since it has accumulated more than 112,000 views and nearly 8,500 likes.</t>
+  </si>
+  <si>
+    <t>Foreign leaders and their spouses attending Queen Elizabeth II's state funeral have been told to fly commercial into Britain and take laid-on buses to reach the service.</t>
+  </si>
+  <si>
+    <t>Bihar Chief Minister Nitish Kumar's JD(U) finds itself in a conundrum over an ugly spat between two of its women MLAs, one of whom is a minister.</t>
+  </si>
+  <si>
+    <t>Twitter reportedly responded to Elon Musk's latest letter of termination on Monday, stating that it had not violated any of the terms the agreement to be acquired for $44 billion (roughly Rs. 3,49,900 crore) by the Tesla CEO. Musk had stated that the payment of $7.75 million (roughly Rs. 60 crore) to a whistleblower without his consent was a violation of his agreement with Twitter.</t>
+  </si>
+  <si>
+    <t>Demand for home loans is strong in India and is expected to pick up further over the next few months, the head of major housing finance firm Housing Development Finance Corporation said on Monday.</t>
+  </si>
+  <si>
+    <t>Viral Video: A video of a dosa being made with lots of butter and oodles of cheese has left the internet divided. Would you try it?</t>
+  </si>
+  <si>
+    <t>The organisers said they are not against women, but only want to prevent the misuse of laws.</t>
+  </si>
+  <si>
+    <t>The Delhi High Court has clarified that there is no stay of investigation in an alleged cheating case against SpiceJet promoter Ajay Singh concerning the transfer of shares of the airline to certain individuals.</t>
+  </si>
+  <si>
+    <t>An elderly couple in England has said that they feel "privileged" to receive one of the last hand-signed cards from Queen Elizabeth II.</t>
+  </si>
+  <si>
+    <t>Defence Minister Rajnath Singh today said the government is committed to creating a robust, secure and self-reliant logistics system to effectively deal with future security challenges.</t>
+  </si>
+  <si>
+    <t>A long-awaited software upgrade to the Ethereum blockchain aimed at slashing its huge energy consumption is expected this week, a move proponents say may widen the technology's use and support the price of the ether token.</t>
+  </si>
+  <si>
+    <t>"Hey now, Hey now this is what dreaaaams are made of," wrote Ananya Panday</t>
+  </si>
+  <si>
+    <t>Singapore's Whampoa Group, a multi-family office with investments in global tech firms, aims to deploy about $100 million through a venture capital fund in start-ups in the burgeoning digital assets segment, its senior executives said.</t>
+  </si>
+  <si>
+    <t>A 25-year-old woman was allegedly stabbed by her neighbour in southwest Delhi's Sagarpur for abusing his mother, officials said on Monday.</t>
+  </si>
+  <si>
+    <t>While launching the Common Seat Allocation System (CSAS), DU said: “There are 14 ECA [extra-curricular activities] categories further divided into sub-categories. A candidate can apply for a maximum of three ECA categories."</t>
+  </si>
+  <si>
+    <t>Apple’s hardware subscription service will be very different from its current iPhone Upgrade Programme, which is available in certain countries. It will essentially let buyers subscribe to Apple hardware instead of purchasing them outright.</t>
+  </si>
+  <si>
+    <t>Former spinner Harbhajan Singh has backed pacer Umran Malik and stated that he can be India's "trump card" on Australian pitches.</t>
+  </si>
+  <si>
+    <t>England thrashed South Africa by nine wickets in the third and deciding Test at the Oval on Monday, completing a 2-1 series win in just over two days of action.</t>
+  </si>
+  <si>
+    <t>Industrialist Anand Mahindra, who is known for his witty tweets, today shared a video of the "best Bolero driver in the world."</t>
+  </si>
+  <si>
+    <t>Anushka Sharma has dropped new pictures with Virat Kohli</t>
+  </si>
+  <si>
+    <t>Varun Dhawan appeared on the show with Anil Kapoor</t>
+  </si>
+  <si>
+    <t>Twitter Inc said on Monday payments made to a whistleblower did not breach any conditions of its $44 billion buyout by Elon Musk.</t>
+  </si>
+  <si>
+    <t>The restrictions on rice exports have paralysed trading in Asia, with buyers scouring for alternative supplies from Vietnam, Thailand and Myanmar where seller are holding off on deals as prices rise, industry officials said.</t>
+  </si>
+  <si>
+    <t>Vedanta Ltd has selected Gujarat for its semiconductor project, two sources told Reuters, the first major step in its $20 billion joint venture with Taiwan's Foxconn.</t>
+  </si>
+  <si>
+    <t>Assassin’s Creed games in the future might be shorter in length. In an interview with IGN, Marc-Alexis Côté, VP, Assassin’s Creed stated that the studio has plans to move away from the open-world RPG format, which recent entries are notorious for. Assassin’s Creed Hexe, which releases as part of the Infinity hub, will not be a 150-hour RPG. Furthermore, future game prices are reflective of the scale of the project.</t>
+  </si>
+  <si>
+    <t>Android 13 QPR1 beta is released and it has provided a preview of what Pixel Feature Drop update will bring. These features include clear calling, spatial audio, among others. It also suggests Google is now working on Pixel tablets.</t>
+  </si>
+  <si>
+    <t>The rupee recouped its losses from early on Monday to end with gains against a restrained dollar as investor sentiment improved on solid domestic equities and an extension to the bull run in global risk assets from last week.</t>
+  </si>
+  <si>
+    <t>Stock Market India: Equity benchmarks soared on Monday to hit a three-week high, extending gains for the third straight session after logging their first weekly climb in three on Friday.</t>
+  </si>
+  <si>
+    <t>Candidates need to pay the CAT application fee of Rs 2,300 for the General category and Rs 1,150 for the reserved category.</t>
+  </si>
+  <si>
+    <t>Singapore will put in place safeguards to ensure that a new work pass for top talent recruitment from around the world is not abused, Manpower Minister Tan See Leng assured Parliament on Monday.</t>
+  </si>
+  <si>
+    <t>Bitcoin gained momentum and surpassed the $22,000 (roughly Rs. 17.5 lakh) resistance level versus the US dollar on Sunday to begin the week on a high after a massive uptick in value over the weekend.</t>
+  </si>
+  <si>
+    <t>Sikandar Raza became the first Zimbabwe international to win the ICC Player of the Month award among men</t>
+  </si>
+  <si>
+    <t>Moto E22s was launched in Europe in August. Now, purported Moto E22 renders have been leaked online, as per a report. The images suggest that the phone cold feature a dual rear AI camera setup with an LED flash. The handset could sport a water-drop style notch on the display, which is expected to house a selfie camera.</t>
+  </si>
+  <si>
+    <t>This was Sri Lanka's sixth Asia Cup title. Pakistan's capitulation against Lankans in both the final and the Super 4 clash left Pakistani fans distressed and sad.</t>
+  </si>
+  <si>
+    <t>Janhvi Kapoor's friend Orhan Awatramani shared pictures from the party</t>
+  </si>
+  <si>
+    <t>Shikhar Dhawan will lead India in the upcoming ODI series against South Africa on home soil, Board of Control for Cricket in India sources told ANI</t>
+  </si>
+  <si>
+    <t>Indian Institute of Management Bangalore has been declared India's best business school in the Financial Times (FT) Masters in Management (MiM) Ranking 2022, announced on Monday, the premier institution said.</t>
+  </si>
+  <si>
+    <t>England vs South Africa, 3rd Test, Highlights: England won the third Test by 9 wickets</t>
+  </si>
+  <si>
+    <t>Taking wickets up front has been one problem for Team India and Shami has a knack of picking up wickets right at the top.</t>
+  </si>
+  <si>
+    <t>This time, Bigg Boss will also be a part of the game, revealed Salman Khan</t>
+  </si>
+  <si>
+    <t>If you are someone who loves to eat spicy food, then we have found a South Indian curry that will definitely make you sweat - it is called chilli lamb.</t>
+  </si>
+  <si>
+    <t>The OJEE counselling 2022 for PG courses started today, September 12. The counselling process for the UG courses will begin tomorrow, September 13, 2022.</t>
+  </si>
+  <si>
+    <t>Realme GT Neo 3T is set to debut in India on September 16 at 12:30pm IST. Ahead of its launch, the smartphone brand has shared the unboxing images of the phone via a post on its official community forum. The handset is confirmed to be powered by a Qualcomm Snapdragon 870 SoC.</t>
+  </si>
+  <si>
+    <t>JEE Advanced Result 2022: Apart from JEE Advanced 2022, Ojas Maheshwari also secured rank 1 in PwD category both in Joint Entrance Examination (JEE Main 2022) and Kishore Vaigyanik Protsahan Yojana Exam (KVPY 2022). His All India Rank in JEE Main is AIR 97 and KVPY- AIR 17</t>
+  </si>
+  <si>
+    <t>The Directorate of Technical Education, Tamil Nadu will close the TNEA counselling 2022 round 1 choice filling today, September 12.</t>
+  </si>
+  <si>
+    <t>Investments of those who betted in Hindustan Aeronautics Ltd stocks have more than doubled so far in 2022.</t>
+  </si>
+  <si>
+    <t>Prepared with fresh garlic cloves, this garlic achar includes some special masala, oil and time for fermentation.</t>
+  </si>
+  <si>
+    <t>Amazon has cut selling fees for new sellers on the e-commerce website by 50 percent, ahead of the company's upcoming Amazon Great Indian Festival 2022 sale that starts later this month, on September 23. All new sellers who register before October 26 and launch within 90 days will be eligible for a 50 percent cut on selling fees, which is collected on all products sold on the website and calculated as a percentage of the total sales price that is paid by the buyer.</t>
+  </si>
+  <si>
+    <t>The UK's recession-threatened economy rebounded in July, data showed Monday, but is set to receive a further hit from a public holiday marking next week's funeral of Queen Elizabeth II.</t>
+  </si>
+  <si>
+    <t>"The life of the set, my hairdresser for more than 15 years," wrote Akshay Kumar</t>
+  </si>
+  <si>
+    <t>These five simple steps of a simple skincare routine for all the men out there.</t>
+  </si>
+  <si>
+    <t>Raspberry-flavoured maggi is the latest dish that has left internet users stunned. Take a look at the bizarre video here!</t>
+  </si>
+  <si>
+    <t>The chairperson of the Delhi Commission for Women, Swati Maliwal, posted the video on Twitter.</t>
+  </si>
+  <si>
+    <t>Vaccination For Children: Talk to your doctor if your child has missed any vaccinations.</t>
+  </si>
+  <si>
+    <t>Here we bring you the solution you have been searching for. We have found a few healthy recipes that are all that you need for your weekday dinner. Take a look below.</t>
+  </si>
+  <si>
+    <t>National Treasure: Edge of History got a trailer at the D23 Expo. Disney’s upcoming sequel to the original Nicolas Cage-led movies follows Jess Valenzuela, a new treasure hunter, who sets out on an adventure to uncover her family’s history. Harvey Keitel returns as FBI agent Peter Sadusky, while Catherine Zeta-Jones plays the antagonist —  a businesswoman in search of the treasure. National Treasure: Edge of History premieres with the first two episodes on December 14, on Disney+ Hotstar.</t>
+  </si>
+  <si>
+    <t>Soundarya Rajinikanth shared the first glimpse of her newborn baby</t>
+  </si>
+  <si>
+    <t>From Eduniversal and QS to the latest FT Masters in Management Ranking 2022, IIMB is ranked #1 in India; the IIMB two-year PGP is #31 globally in the FT MiM ranking.</t>
+  </si>
+  <si>
+    <t>An important repair for the Space Launch System (SLS) rocket has been completed by NASA. The leaky seals on the SLS were replaced by engineers last week. One of the fuel lines to the SLS started leaking earlier this month forcing the space agency to halt its attempt to launch Artemis I.</t>
+  </si>
+  <si>
+    <t>Looking for interesting vegetarian snacks? Here we bring you a list of quick and easy gobhi snacks that are ideal to serve as a starter for your next get together.</t>
+  </si>
+  <si>
+    <t>iPhone 14 series alleged battery capacities have been revealed. The iPhone 14 is said to have a 3,279mAh battery, the iPhone 14 Plus a 4,325mAh battery, the iPhone 14 Pro a 3,200mAh battery, and the iPhone 14 Pro Max a 4,323mAh battery.</t>
+  </si>
+  <si>
+    <t>The Delhi High Court on Monday directed St Stephen's College to follow the admission policy formulated by Delhi University (DU) and accord 100 per cent weightage to the CUET 2022 score.</t>
+  </si>
+  <si>
+    <t>Pakistan coach Saqlain Mushtaq defended his team's Twenty20 playing style after losing Sunday's Asia Cup final, saying they were on the right track for next month's T20 World Cup.</t>
+  </si>
+  <si>
+    <t>Tora's Husband Review: Written, directed, produced, edited and shot by Rima Das, it is the first-ever Indian title to make it to the Toronto International Film Festival's Platform competition.</t>
+  </si>
+  <si>
+    <t>WazirX, linked to the world's largest digital currency exchange Binance, said on Monday its bank accounts were unfrozen by India's financial crime-fighting agency after more than a month.</t>
+  </si>
+  <si>
+    <t>Air India on Monday said it will progressively induct 30 new aircraft, including 5 wide-body Boeing planes, from December this year, as the Tatas-owned airline looks to boost its domestic and international services.</t>
+  </si>
+  <si>
+    <t>Asia Cup: There were low points in the match for the Babar Azam-led side but wicketkeeper-batter Mohammad Rizwan's slow knock of 55 runs off 49 balls, utterly disappointed the fans and cricket pundits alike.</t>
+  </si>
+  <si>
+    <t>Brahmastra has been ruling the box office and how</t>
+  </si>
+  <si>
+    <t>Sindhi cuisine is popular worldwide for its deep, robust and rich flavours and not to forget, lots of veggies offering varied flavours. Let's get started with the biryani recipe.</t>
+  </si>
+  <si>
+    <t>To check and download the MHT CET result 2022 candidates need to visit the official website– cetcell.mahacet.org.</t>
+  </si>
+  <si>
+    <t>Amazon.com Inc's Indian marketplace said on Monday it will halve the fee for new sellers on its platform as the e-commerce giant gears up for festive season in one of its key markets.</t>
+  </si>
+  <si>
+    <t>Experts suggest taking constant care of our diet to manage the blood sugar level in our body. A recent study found that humble onions may help do the job.</t>
+  </si>
+  <si>
+    <t>The rise of fintech services and digital banking could spur financial risks and potentially a crisis over the long term, Michael Hsu, Acting Comptroller of the Currency, a major U.S. bank regulator, warned on Wednesday.</t>
+  </si>
+  <si>
+    <t>You can replace your regular rotis with the healthier alternatives of ragi roti, lauki roti, oats roti and more!</t>
+  </si>
+  <si>
+    <t>The Delhi University (DU) has launched the Common Seat Allocation System (CSAS) portal today, September 12.</t>
+  </si>
+  <si>
+    <t>Shadab Khan took to Twitter to apologise for the dropped catches in the contest, and said he takes full responsibility for this result.</t>
+  </si>
+  <si>
+    <t>Oppo F21s Pro series landing page had recently gone live, confirming its launch in India. Now, Oppo has announced that the series will debut in the country on September 15. Additionally, a purported live image has been leaked online by a tipster. The upcoming series is said to comprise of two models.</t>
+  </si>
+  <si>
+    <t>Varun Dhawan and Anil Kapoor will feature in the upcoming episode of Koffee With Karan</t>
+  </si>
+  <si>
+    <t>Shilpa Shetty took to Instagram to share her Sunday food binge after ages, but this time, the video had a cute, paw-dorable twist!</t>
+  </si>
+  <si>
+    <t>Autonomous vehicle (AV) startups have raised tens of billions of dollars based on promises to develop truly self-driving cars, but industry executives and experts say remote human supervisors may be needed permanently to help robot drivers in trouble.</t>
+  </si>
+  <si>
+    <t>Sri Lanka's Asia Cup winning hero Bhanuka Rajapaksa, whose stellar show with the bat played a pivotal role in his side's sensational Asia Cup victory, has dedicated the title to his crisis-hit island nation</t>
+  </si>
+  <si>
+    <t>Spanish tennis player Carlos Alcaraz Garfia won his first Grand Slam championship in New York by defeating Casper Ruud in four sets in the final, capping off an incredible run. After saving a match point, Alcaraz actually became the first man to win the US Open since Stanislas Wawrinka in 2016.</t>
+  </si>
+  <si>
+    <t>If you follow Rakul Preet on Instagram, you will know that she is a health and fitness enthusiast. Her stories feature many indulgences.</t>
+  </si>
+  <si>
+    <t>Reliance Infrastructure Ltd. said it filed an arbitration claim of 134 billion rupees ($1.7 billion) in relation to a deal to sell its Mumbai power-distribution business to Adani Transmission Ltd.</t>
+  </si>
+  <si>
+    <t>All India Management Association, AIMA will close the registration process for Management Aptitude Test (MAT) 2022 CBT examination today, September 12.</t>
+  </si>
+  <si>
+    <t>The Biden administration reportedly plans to broaden the curbs on the US shipments of semiconductors used for artificial intelligence and chipmaking tools to China. Based on the restrictions that were communicated in letters to three US companies, the US Commerce Department intends to publish new regulations to restrict to shipments of the chips, according to a report.</t>
+  </si>
+  <si>
+    <t>Vicky Kaushal took to his Instagram to share a glimpse of his Sunday binge and we totally loved it. Read on to know more.</t>
+  </si>
+  <si>
+    <t>Percy Jackson and the Olympians got a teaser at the D23 Expo. Disney unveiled the teaser for its upcoming soft-reboot series, following the titular Jackson, as he joins Camp Half-Blood, coming to terms with being a demigod. The eight-episode adaptation is being overlooked by Jonathan E. Steinberg in collaboration with original author Rick Riordan. Percy Jackson and the Olympians is expected to release in 2024, exclusively on Disney+ and Disney+ Hotstar.</t>
+  </si>
+  <si>
+    <t>The US securities regulator will set up two new offices to deal with filings related to crypto assets and the life sciences sector, the agency said on Friday.</t>
+  </si>
+  <si>
+    <t>There are demands to extend production linked incentive (PLI) scheme to more sectors such as certain electronic components, pharma and medical devices, and discussions are underway in the government on these proposals, a senior government official said.</t>
+  </si>
+  <si>
+    <t>Gold prices were flat on Monday, with investor focus being on a key U.S. inflation reading as it could influence the size of the Federal Reserve's next interest rate hike.</t>
+  </si>
+  <si>
+    <t>DU UG Admission 2022: The candidates can apply for UG admission process online on the official website — admission.uod.ac.in</t>
+  </si>
+  <si>
+    <t>iOS 16 and watchOS 9 will be released by Apple globally, including in India today. The updates should hit the compatible iPhone and Apple Watch models at around 10.30pm in India. The new updates bring several features and improvements to compatible iPhone and Apple Watch models.</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1242,7 @@
         <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1226,7 +1256,7 @@
         <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1240,7 +1270,7 @@
         <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1254,7 +1284,7 @@
         <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1265,10 +1295,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1279,10 +1309,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1293,10 +1323,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1307,10 +1337,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1321,10 +1351,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1335,10 +1365,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1349,10 +1379,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1363,10 +1393,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1377,10 +1407,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1391,10 +1421,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1405,10 +1435,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1416,13 +1446,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1430,13 +1460,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1444,13 +1474,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1458,13 +1488,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1472,13 +1502,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1486,13 +1516,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1500,13 +1530,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1514,13 +1544,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
         <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1528,13 +1558,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1542,13 +1572,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1556,13 +1586,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1570,13 +1600,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1584,13 +1614,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1598,13 +1628,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1612,13 +1642,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1626,13 +1656,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1640,13 +1670,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1654,13 +1684,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1668,13 +1698,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1682,13 +1712,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1696,13 +1726,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1710,13 +1740,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1724,13 +1754,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1738,13 +1768,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1752,13 +1782,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1766,13 +1796,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1780,13 +1810,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
         <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1794,13 +1824,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1808,13 +1838,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1822,13 +1852,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1836,13 +1866,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1850,13 +1880,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1864,13 +1894,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1878,13 +1908,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1892,13 +1922,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1906,13 +1936,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1920,13 +1950,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1934,13 +1964,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1948,13 +1978,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1962,13 +1992,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1976,13 +2006,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1990,13 +2020,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2004,13 +2034,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2018,13 +2048,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2032,13 +2062,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2046,13 +2076,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2060,13 +2090,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2074,13 +2104,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2088,13 +2118,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D65" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2102,13 +2132,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="D66" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2116,13 +2146,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2130,13 +2160,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D68" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2144,13 +2174,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
         <v>114</v>
       </c>
       <c r="D69" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2158,13 +2188,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D70" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2172,13 +2202,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D71" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2186,13 +2216,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="D72" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2200,13 +2230,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D73" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2214,13 +2244,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D74" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2228,13 +2258,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2242,13 +2272,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D76" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2256,13 +2286,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D77" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2270,13 +2300,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="D78" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2284,13 +2314,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2298,13 +2328,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D80" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2312,13 +2342,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2326,13 +2356,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="D82" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2340,13 +2370,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="D83" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2354,13 +2384,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2368,13 +2398,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D85" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2382,13 +2412,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D86" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2396,13 +2426,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2410,13 +2440,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D88" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2424,13 +2454,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D89" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2438,13 +2468,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C90" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D90" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2452,13 +2482,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D91" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2466,13 +2496,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="D92" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2480,13 +2510,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C93" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D93" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2494,13 +2524,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C94" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="D94" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2508,13 +2538,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D95" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2522,13 +2552,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C96" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="D96" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2536,13 +2566,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C97" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="D97" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2550,13 +2580,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C98" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D98" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2564,13 +2594,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C99" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2578,13 +2608,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D100" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2592,13 +2622,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D101" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2606,13 +2636,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C102" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D102" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2620,13 +2650,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C103" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D103" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2634,13 +2664,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C104" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D104" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2648,13 +2678,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="D105" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2662,13 +2692,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C106" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D106" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2679,10 +2709,10 @@
         <v>97</v>
       </c>
       <c r="C107" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D107" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2693,10 +2723,10 @@
         <v>98</v>
       </c>
       <c r="C108" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="D108" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2707,10 +2737,10 @@
         <v>99</v>
       </c>
       <c r="C109" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D109" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2721,10 +2751,10 @@
         <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D110" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2738,7 +2768,7 @@
         <v>161</v>
       </c>
       <c r="D111" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2749,10 +2779,10 @@
         <v>102</v>
       </c>
       <c r="C112" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="D112" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2763,10 +2793,10 @@
         <v>103</v>
       </c>
       <c r="C113" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D113" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2777,10 +2807,10 @@
         <v>104</v>
       </c>
       <c r="C114" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="D114" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2791,10 +2821,10 @@
         <v>105</v>
       </c>
       <c r="C115" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="D115" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2805,10 +2835,10 @@
         <v>106</v>
       </c>
       <c r="C116" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D116" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2819,10 +2849,10 @@
         <v>107</v>
       </c>
       <c r="C117" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D117" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2833,10 +2863,10 @@
         <v>108</v>
       </c>
       <c r="C118" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D118" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2847,10 +2877,10 @@
         <v>109</v>
       </c>
       <c r="C119" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D119" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2861,10 +2891,10 @@
         <v>110</v>
       </c>
       <c r="C120" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D120" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2875,10 +2905,10 @@
         <v>111</v>
       </c>
       <c r="C121" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="D121" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
